--- a/data/TestLocation/input_data/transmission_lines.xlsx
+++ b/data/TestLocation/input_data/transmission_lines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B84E804-885D-477C-B2F1-E138C726C02B}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{287E8E0F-F87E-43AA-8888-F670C397451A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7730" yWindow="-13440" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>in km</t>
   </si>
   <si>
-    <t>in MW??</t>
-  </si>
-  <si>
     <t>CapExLines</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>in MW</t>
   </si>
 </sst>
 </file>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,46 +768,46 @@
         <v>24</v>
       </c>
       <c r="H1" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="J1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="N1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="38" t="s">
-        <v>33</v>
-      </c>
       <c r="O1" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="Q1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="R1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="S1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="T1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="U1" s="38" t="s">
         <v>41</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -1013,11 +1013,11 @@
         <v>40000</v>
       </c>
       <c r="C5" s="11">
-        <f>C2</f>
+        <f t="shared" ref="C5:D7" si="0">C2</f>
         <v>1</v>
       </c>
       <c r="D5" s="11">
-        <f>D2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E5" s="8">
@@ -1080,11 +1080,11 @@
         <v>40000</v>
       </c>
       <c r="C6" s="11">
-        <f>C3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" s="11">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E6" s="8">
@@ -1147,11 +1147,11 @@
         <v>40000</v>
       </c>
       <c r="C7" s="11">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" s="11">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E7" s="8">
@@ -1208,7 +1208,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>25</v>
@@ -1217,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>9</v>
@@ -1238,28 +1238,28 @@
         <v>1</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
@@ -1340,11 +1340,11 @@
       <c r="I13" s="18"/>
       <c r="J13" s="10"/>
       <c r="K13" s="31">
-        <f t="shared" ref="K13:K18" si="0">E13</f>
+        <f t="shared" ref="K13:K18" si="1">E13</f>
         <v>0</v>
       </c>
       <c r="L13" s="23">
-        <f t="shared" ref="L13:L18" si="1">ROUND((M13/1000*N13+O13)*$L$11,3)</f>
+        <f t="shared" ref="L13:L18" si="2">ROUND((M13/1000*N13+O13)*$L$11,3)</f>
         <v>0</v>
       </c>
       <c r="M13" s="3">
@@ -1382,7 +1382,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="10"/>
       <c r="K14" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L14" s="23">
@@ -1421,11 +1421,11 @@
       <c r="I15" s="18"/>
       <c r="J15" s="10"/>
       <c r="K15" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L15" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="3">
@@ -1460,11 +1460,11 @@
       <c r="I16" s="18"/>
       <c r="J16" s="10"/>
       <c r="K16" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="3">
@@ -1500,11 +1500,11 @@
       <c r="I17" s="18"/>
       <c r="J17" s="10"/>
       <c r="K17" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="3">
@@ -1540,11 +1540,11 @@
       <c r="I18" s="18"/>
       <c r="J18" s="10"/>
       <c r="K18" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="35">
